--- a/Self Project/project_sheet_IH_v1.xlsx
+++ b/Self Project/project_sheet_IH_v1.xlsx
@@ -8,26 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianhabit/Documents/GitHub/psyc530/Self Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D59AB-DCC2-D34B-AF1C-56253489A0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236BA3C6-CCDF-354B-81CF-8606384C1DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1720" windowWidth="23040" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32880" yWindow="2440" windowWidth="23040" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ian's Sessions" sheetId="2" r:id="rId1"/>
     <sheet name="Data Dictionary" sheetId="3" r:id="rId2"/>
     <sheet name="Example" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="94">
   <si>
     <t>Gender</t>
   </si>
@@ -288,16 +299,43 @@
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I played the game based on the instructions perfectly and still failed. It says I did not save the water towers, even though they were all intact and undamaged after the fire. I have the screenshots to support. </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Tried a different strategy but went back to original</t>
+  </si>
+  <si>
+    <t>Optimized the gameplay behavior for a pass and low casualties and least amount of time spent performing the objectives, thus metrics for engagement, cognitive straint, etc. went down because my gameplay became routine.</t>
+  </si>
+  <si>
+    <t>All one sitting phase 1</t>
+  </si>
+  <si>
+    <t>All one sitting phase 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,9 +361,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,64 +510,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12467.333333333334</c:v>
+                  <c:v>25330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24281</c:v>
+                  <c:v>19090</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31768.666666666668</c:v>
+                  <c:v>18675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39174.666666666664</c:v>
+                  <c:v>21021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41270.666666666664</c:v>
+                  <c:v>24129</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51542.566666666702</c:v>
+                  <c:v>19871</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58792.6</c:v>
+                  <c:v>24306</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66042.633333333302</c:v>
+                  <c:v>19543</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73292.666666666599</c:v>
+                  <c:v>20567</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73292.666666666599</c:v>
+                  <c:v>21090</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87792.733333333294</c:v>
+                  <c:v>23174</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>95042.766666666605</c:v>
+                  <c:v>23557</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95042.766666666605</c:v>
+                  <c:v>21899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95042.766666666605</c:v>
+                  <c:v>21675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>116792.866666667</c:v>
+                  <c:v>22445</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116792.866666667</c:v>
+                  <c:v>22578</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116792.866666667</c:v>
+                  <c:v>19887</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>116792.866666667</c:v>
+                  <c:v>22990</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>145793</c:v>
+                  <c:v>20897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>145793</c:v>
+                  <c:v>19233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2684,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B33BA93-88E9-BE41-8324-E61F2F3BD7DC}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2697,9 +2739,10 @@
     <col min="11" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="28" max="28" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2778,8 +2821,14 @@
       <c r="Z1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -2858,8 +2907,14 @@
       <c r="Z2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2869,29 +2924,83 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>1175</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11830</v>
+      </c>
+      <c r="H3" s="1">
+        <v>19090</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>55</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1">
+        <v>25</v>
+      </c>
+      <c r="S3" s="1">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1">
+        <v>50</v>
+      </c>
+      <c r="U3" s="1">
+        <v>75</v>
+      </c>
+      <c r="V3" s="1">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1">
+        <v>60</v>
+      </c>
+      <c r="X3" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -2901,29 +3010,83 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>3740</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>14576</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18675</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="1">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>50</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15</v>
+      </c>
+      <c r="R4" s="1">
+        <v>20</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1">
+        <v>50</v>
+      </c>
+      <c r="U4" s="1">
+        <v>50</v>
+      </c>
+      <c r="V4" s="1">
+        <v>5</v>
+      </c>
+      <c r="W4" s="1">
+        <v>50</v>
+      </c>
+      <c r="X4" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -2933,29 +3096,80 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>732</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8478</v>
+      </c>
+      <c r="H5" s="1">
+        <v>21021</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1">
+        <v>35</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>50</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15</v>
+      </c>
+      <c r="R5" s="1">
+        <v>15</v>
+      </c>
+      <c r="S5" s="1">
+        <v>5</v>
+      </c>
+      <c r="T5" s="1">
+        <v>50</v>
+      </c>
+      <c r="U5" s="1">
+        <v>50</v>
+      </c>
+      <c r="V5" s="1">
+        <v>5</v>
+      </c>
+      <c r="W5" s="1">
+        <v>50</v>
+      </c>
+      <c r="X5" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -2965,29 +3179,80 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>193</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6890</v>
+      </c>
+      <c r="H6" s="1">
+        <v>24129</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="1">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>15</v>
+      </c>
+      <c r="R6" s="1">
+        <v>15</v>
+      </c>
+      <c r="S6" s="1">
+        <v>5</v>
+      </c>
+      <c r="T6" s="1">
+        <v>50</v>
+      </c>
+      <c r="U6" s="1">
+        <v>40</v>
+      </c>
+      <c r="V6" s="1">
+        <v>5</v>
+      </c>
+      <c r="W6" s="1">
+        <v>50</v>
+      </c>
+      <c r="X6" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2997,29 +3262,80 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <v>1009</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11490</v>
+      </c>
+      <c r="H7" s="1">
+        <v>19871</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="1">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1">
+        <v>35</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>50</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>17</v>
+      </c>
+      <c r="R7" s="1">
+        <v>15</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>50</v>
+      </c>
+      <c r="U7" s="1">
+        <v>40</v>
+      </c>
+      <c r="V7" s="1">
+        <v>5</v>
+      </c>
+      <c r="W7" s="1">
+        <v>50</v>
+      </c>
+      <c r="X7" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -3029,29 +3345,80 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>191</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10674</v>
+      </c>
+      <c r="H8" s="1">
+        <v>24306</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="1">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1">
+        <v>35</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>20</v>
+      </c>
+      <c r="R8" s="1">
+        <v>15</v>
+      </c>
+      <c r="S8" s="1">
+        <v>5</v>
+      </c>
+      <c r="T8" s="1">
+        <v>50</v>
+      </c>
+      <c r="U8" s="1">
+        <v>30</v>
+      </c>
+      <c r="V8" s="1">
+        <v>5</v>
+      </c>
+      <c r="W8" s="1">
+        <v>50</v>
+      </c>
+      <c r="X8" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -3061,29 +3428,80 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <v>1709</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>11349</v>
+      </c>
+      <c r="H9" s="1">
+        <v>19543</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="1">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
+        <v>35</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>20</v>
+      </c>
+      <c r="R9" s="1">
+        <v>15</v>
+      </c>
+      <c r="S9" s="1">
+        <v>5</v>
+      </c>
+      <c r="T9" s="1">
+        <v>50</v>
+      </c>
+      <c r="U9" s="1">
+        <v>30</v>
+      </c>
+      <c r="V9" s="1">
+        <v>5</v>
+      </c>
+      <c r="W9" s="1">
+        <v>50</v>
+      </c>
+      <c r="X9" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -3093,29 +3511,80 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <v>1348</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10544</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20567</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="1">
+        <v>30</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>35</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>45</v>
+      </c>
+      <c r="P10" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>20</v>
+      </c>
+      <c r="R10" s="1">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>5</v>
+      </c>
+      <c r="T10" s="1">
+        <v>50</v>
+      </c>
+      <c r="U10" s="1">
+        <v>30</v>
+      </c>
+      <c r="V10" s="1">
+        <v>5</v>
+      </c>
+      <c r="W10" s="1">
+        <v>40</v>
+      </c>
+      <c r="X10" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -3125,29 +3594,80 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <v>1153</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9733</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21090</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="1">
+        <v>30</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>45</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>22</v>
+      </c>
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>5</v>
+      </c>
+      <c r="T11" s="1">
+        <v>50</v>
+      </c>
+      <c r="U11" s="1">
+        <v>20</v>
+      </c>
+      <c r="V11" s="1">
+        <v>5</v>
+      </c>
+      <c r="W11" s="1">
+        <v>40</v>
+      </c>
+      <c r="X11" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -3157,29 +3677,80 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D12" s="1">
+        <v>306</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7403</v>
+      </c>
+      <c r="H12" s="1">
+        <v>23174</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1">
+        <v>40</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>55</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>10</v>
+      </c>
+      <c r="R12" s="1">
+        <v>20</v>
+      </c>
+      <c r="S12" s="1">
+        <v>5</v>
+      </c>
+      <c r="T12" s="1">
+        <v>30</v>
+      </c>
+      <c r="U12" s="1">
+        <v>30</v>
+      </c>
+      <c r="V12" s="1">
+        <v>5</v>
+      </c>
+      <c r="W12" s="1">
+        <v>55</v>
+      </c>
+      <c r="X12" s="1">
+        <v>90</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -3189,29 +3760,80 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <v>276</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7297</v>
+      </c>
+      <c r="H13" s="1">
+        <v>23557</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="1">
+        <v>35</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>45</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>10</v>
+      </c>
+      <c r="R13" s="1">
+        <v>15</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>30</v>
+      </c>
+      <c r="U13" s="1">
+        <v>25</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5</v>
+      </c>
+      <c r="W13" s="1">
+        <v>40</v>
+      </c>
+      <c r="X13" s="1">
+        <v>95</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -3221,29 +3843,80 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
+        <v>781</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8678</v>
+      </c>
+      <c r="H14" s="1">
+        <v>21899</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="1">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>35</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>10</v>
+      </c>
+      <c r="R14" s="1">
+        <v>15</v>
+      </c>
+      <c r="S14" s="1">
+        <v>5</v>
+      </c>
+      <c r="T14" s="1">
+        <v>30</v>
+      </c>
+      <c r="U14" s="1">
+        <v>20</v>
+      </c>
+      <c r="V14" s="1">
+        <v>5</v>
+      </c>
+      <c r="W14" s="1">
+        <v>35</v>
+      </c>
+      <c r="X14" s="1">
+        <v>95</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3253,29 +3926,80 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D15" s="1">
+        <v>901</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8956</v>
+      </c>
+      <c r="H15" s="1">
+        <v>21675</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="1">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>35</v>
+      </c>
+      <c r="P15" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>10</v>
+      </c>
+      <c r="R15" s="1">
+        <v>13</v>
+      </c>
+      <c r="S15" s="1">
+        <v>5</v>
+      </c>
+      <c r="T15" s="1">
+        <v>25</v>
+      </c>
+      <c r="U15" s="1">
+        <v>20</v>
+      </c>
+      <c r="V15" s="1">
+        <v>5</v>
+      </c>
+      <c r="W15" s="1">
+        <v>35</v>
+      </c>
+      <c r="X15" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -3285,29 +4009,80 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D16" s="1">
+        <v>686</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8322</v>
+      </c>
+      <c r="H16" s="1">
+        <v>22445</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="1">
+        <v>30</v>
+      </c>
+      <c r="K16" s="1">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>35</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>15</v>
+      </c>
+      <c r="R16" s="1">
+        <v>15</v>
+      </c>
+      <c r="S16" s="1">
+        <v>5</v>
+      </c>
+      <c r="T16" s="1">
+        <v>20</v>
+      </c>
+      <c r="U16" s="1">
+        <v>20</v>
+      </c>
+      <c r="V16" s="1">
+        <v>5</v>
+      </c>
+      <c r="W16" s="1">
+        <v>35</v>
+      </c>
+      <c r="X16" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3317,29 +4092,80 @@
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D17" s="1">
+        <v>615</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7966</v>
+      </c>
+      <c r="H17" s="1">
+        <v>22578</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="1">
+        <v>30</v>
+      </c>
+      <c r="K17" s="1">
+        <v>10</v>
+      </c>
+      <c r="L17" s="1">
+        <v>30</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>35</v>
+      </c>
+      <c r="P17" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>20</v>
+      </c>
+      <c r="R17" s="1">
+        <v>20</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5</v>
+      </c>
+      <c r="T17" s="1">
+        <v>20</v>
+      </c>
+      <c r="U17" s="1">
+        <v>20</v>
+      </c>
+      <c r="V17" s="1">
+        <v>5</v>
+      </c>
+      <c r="W17" s="1">
+        <v>35</v>
+      </c>
+      <c r="X17" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -3349,29 +4175,80 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D18" s="1">
+        <v>1631</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>12124</v>
+      </c>
+      <c r="H18" s="1">
+        <v>19887</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="1">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1">
+        <v>30</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>35</v>
+      </c>
+      <c r="P18" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>22</v>
+      </c>
+      <c r="R18" s="1">
+        <v>20</v>
+      </c>
+      <c r="S18" s="1">
+        <v>5</v>
+      </c>
+      <c r="T18" s="1">
+        <v>20</v>
+      </c>
+      <c r="U18" s="1">
+        <v>20</v>
+      </c>
+      <c r="V18" s="1">
+        <v>5</v>
+      </c>
+      <c r="W18" s="1">
+        <v>35</v>
+      </c>
+      <c r="X18" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -3381,29 +4258,80 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D19" s="1">
+        <v>408</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7205</v>
+      </c>
+      <c r="H19" s="1">
+        <v>22990</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="1">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10</v>
+      </c>
+      <c r="L19" s="1">
+        <v>30</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>35</v>
+      </c>
+      <c r="P19" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>25</v>
+      </c>
+      <c r="R19" s="1">
+        <v>20</v>
+      </c>
+      <c r="S19" s="1">
+        <v>5</v>
+      </c>
+      <c r="T19" s="1">
+        <v>20</v>
+      </c>
+      <c r="U19" s="1">
+        <v>20</v>
+      </c>
+      <c r="V19" s="1">
+        <v>5</v>
+      </c>
+      <c r="W19" s="1">
+        <v>35</v>
+      </c>
+      <c r="X19" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -3413,29 +4341,80 @@
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
+        <v>1236</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9334</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20897</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="1">
+        <v>30</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1">
+        <v>30</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>35</v>
+      </c>
+      <c r="P20" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>30</v>
+      </c>
+      <c r="R20" s="1">
+        <v>20</v>
+      </c>
+      <c r="S20" s="1">
+        <v>5</v>
+      </c>
+      <c r="T20" s="1">
+        <v>20</v>
+      </c>
+      <c r="U20" s="1">
+        <v>20</v>
+      </c>
+      <c r="V20" s="1">
+        <v>5</v>
+      </c>
+      <c r="W20" s="1">
+        <v>35</v>
+      </c>
+      <c r="X20" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -3445,29 +4424,80 @@
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
+        <v>1970</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10745</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19233</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="1">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1">
+        <v>30</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>35</v>
+      </c>
+      <c r="P21" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>35</v>
+      </c>
+      <c r="R21" s="1">
+        <v>20</v>
+      </c>
+      <c r="S21" s="1">
+        <v>5</v>
+      </c>
+      <c r="T21" s="1">
+        <v>20</v>
+      </c>
+      <c r="U21" s="1">
+        <v>20</v>
+      </c>
+      <c r="V21" s="1">
+        <v>5</v>
+      </c>
+      <c r="W21" s="1">
+        <v>35</v>
+      </c>
+      <c r="X21" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -3485,7 +4515,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3503,7 +4533,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>1</v>
       </c>
@@ -3568,72 +4598,73 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="1">
-        <v>12467.333333333334</v>
+        <v>25330</v>
       </c>
       <c r="F28" s="1">
-        <v>24281</v>
+        <v>19090</v>
       </c>
       <c r="G28" s="1">
-        <v>31768.666666666668</v>
+        <v>18675</v>
       </c>
       <c r="H28" s="1">
-        <v>39174.666666666664</v>
+        <v>21021</v>
       </c>
       <c r="I28" s="1">
-        <v>41270.666666666664</v>
+        <v>24129</v>
       </c>
       <c r="J28" s="1">
-        <v>51542.566666666702</v>
+        <v>19871</v>
       </c>
       <c r="K28" s="1">
-        <v>58792.6</v>
+        <v>24306</v>
       </c>
       <c r="L28" s="1">
-        <v>66042.633333333302</v>
+        <v>19543</v>
       </c>
       <c r="M28" s="1">
-        <v>73292.666666666599</v>
+        <v>20567</v>
       </c>
       <c r="N28" s="1">
-        <v>73292.666666666599</v>
+        <v>21090</v>
       </c>
       <c r="O28" s="1">
-        <v>87792.733333333294</v>
+        <v>23174</v>
       </c>
       <c r="P28" s="1">
-        <v>95042.766666666605</v>
+        <v>23557</v>
       </c>
       <c r="Q28" s="1">
-        <v>95042.766666666605</v>
+        <v>21899</v>
       </c>
       <c r="R28" s="1">
-        <v>95042.766666666605</v>
+        <v>21675</v>
       </c>
       <c r="S28" s="1">
-        <v>116792.866666667</v>
+        <v>22445</v>
       </c>
       <c r="T28" s="1">
-        <v>116792.866666667</v>
+        <v>22578</v>
       </c>
       <c r="U28" s="1">
-        <v>116792.866666667</v>
+        <v>19887</v>
       </c>
       <c r="V28" s="1">
-        <v>116792.866666667</v>
+        <v>22990</v>
       </c>
       <c r="W28" s="1">
-        <v>145793</v>
+        <v>20897</v>
       </c>
       <c r="X28" s="1">
-        <v>145793</v>
+        <v>19233</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
